--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>returned</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -64,262 +67,238 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>ever</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>fan</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>fast</t>
   </si>
   <si>
-    <t>works</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>buy</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
   <si>
     <t>time</t>
@@ -689,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -758,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -776,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -829,16 +808,16 @@
         <v>91</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -850,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -858,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2626262626262627</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -876,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8671875</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -900,21 +879,45 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.1297297297297297</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>161</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,21 +929,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.846749226006192</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>547</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>547</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,21 +955,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,21 +981,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8436532507739938</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>545</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>545</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1004,21 +1007,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7954545454545454</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,21 +1033,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7402597402597403</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L11">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="M11">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,21 +1059,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7333333333333333</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,47 +1085,47 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13">
+        <v>0.65625</v>
+      </c>
+      <c r="L13">
+        <v>42</v>
+      </c>
+      <c r="M13">
+        <v>42</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>22</v>
-      </c>
-      <c r="K13">
-        <v>0.7316017316017316</v>
-      </c>
-      <c r="L13">
-        <v>169</v>
-      </c>
-      <c r="M13">
-        <v>169</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6576271186440678</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L14">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1134,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.65625</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1160,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6461538461538462</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1186,47 +1189,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>0.6438356164383562</v>
+      </c>
+      <c r="L17">
+        <v>47</v>
+      </c>
+      <c r="M17">
+        <v>47</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>26</v>
-      </c>
-      <c r="K17">
-        <v>0.64</v>
-      </c>
-      <c r="L17">
-        <v>112</v>
-      </c>
-      <c r="M17">
-        <v>112</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6338028169014085</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>784</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>784</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1238,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6326530612244898</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1264,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6301369863013698</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1290,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6274509803921569</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1316,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1342,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6243980738362761</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L23">
-        <v>778</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>778</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1368,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>468</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.6176470588235294</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1394,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.6041666666666666</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1420,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1446,21 +1449,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5641025641025641</v>
+        <v>0.5625</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1472,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5641025641025641</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1498,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5614035087719298</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1524,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1550,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5384615384615384</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1576,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5209580838323353</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L32">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M32">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1602,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.4957264957264957</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1628,21 +1631,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.4887218045112782</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L34">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1654,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.4711538461538461</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1680,21 +1683,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.47</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1706,21 +1709,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.4691358024691358</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L37">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1732,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38">
+        <v>0.47</v>
+      </c>
+      <c r="L38">
         <v>47</v>
       </c>
-      <c r="K38">
-        <v>0.4603174603174603</v>
-      </c>
-      <c r="L38">
-        <v>29</v>
-      </c>
       <c r="M38">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1758,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.4473684210526316</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1784,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.4457831325301205</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L40">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M40">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1810,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.4193548387096774</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1836,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.4156626506024096</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="L42">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1862,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.4</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1888,15 +1891,15 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.3934426229508197</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L44">
         <v>24</v>
@@ -1914,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3928571428571428</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1940,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3657587548638132</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L46">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1966,21 +1969,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>163</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3553921568627451</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L47">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M47">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1992,21 +1995,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3552631578947368</v>
+        <v>0.3663366336633663</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M48">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2018,21 +2021,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.3529411764705883</v>
+        <v>0.3597122302158273</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M49">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2044,21 +2047,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.3452054794520548</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L50">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="M50">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2070,21 +2073,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>478</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.3383458646616541</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L51">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2096,21 +2099,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>88</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.3381294964028777</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L52">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M52">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2122,21 +2125,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.3240740740740741</v>
+        <v>0.3356164383561644</v>
       </c>
       <c r="L53">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="M53">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2148,21 +2151,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>73</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.3095238095238095</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2174,21 +2177,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.3063063063063063</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M55">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2200,21 +2203,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.3055555555555556</v>
+        <v>0.2518837459634015</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2226,21 +2229,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>50</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2857142857142857</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2252,21 +2255,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2781456953642384</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="L58">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M58">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2278,21 +2281,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2588235294117647</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2304,21 +2307,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K60">
+        <v>0.2163009404388715</v>
+      </c>
+      <c r="L60">
         <v>69</v>
       </c>
-      <c r="K60">
-        <v>0.2574257425742574</v>
-      </c>
-      <c r="L60">
-        <v>26</v>
-      </c>
       <c r="M60">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2330,21 +2333,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>75</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.2568807339449541</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="L61">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2356,21 +2359,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.2497308934337998</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L62">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="M62">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2382,21 +2385,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>697</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.24</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2408,47 +2411,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.2344497607655502</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L64">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.2225705329153605</v>
+        <v>0.1815856777493606</v>
       </c>
       <c r="L65">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="M65">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2460,21 +2463,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>248</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.2147651006711409</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="L66">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M66">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2486,47 +2489,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>117</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.2142857142857143</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N67">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.2136752136752137</v>
+        <v>0.1644204851752022</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2538,21 +2541,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>92</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.2072072072072072</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L69">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2564,21 +2567,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>88</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K70">
-        <v>0.2058823529411765</v>
+        <v>0.1508515815085158</v>
       </c>
       <c r="L70">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="M70">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2590,21 +2593,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>621</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K71">
-        <v>0.2015503875968992</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L71">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M71">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2616,99 +2619,99 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1830238726790451</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L72">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="N72">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>616</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1707317073170732</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="L73">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M73">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1657608695652174</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L74">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M74">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="N74">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>307</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1649484536082474</v>
+        <v>0.1384248210023866</v>
       </c>
       <c r="L75">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M75">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2720,21 +2723,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>243</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76">
-        <v>0.1576354679802956</v>
+        <v>0.137037037037037</v>
       </c>
       <c r="L76">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M76">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2746,21 +2749,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>171</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K77">
-        <v>0.1533742331288344</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2772,21 +2775,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>138</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K78">
-        <v>0.1532846715328467</v>
+        <v>0.125</v>
       </c>
       <c r="L78">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M78">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2798,73 +2801,73 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79">
-        <v>0.1431818181818182</v>
+        <v>0.1120879120879121</v>
       </c>
       <c r="L79">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M79">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>377</v>
+        <v>404</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K80">
-        <v>0.138655462184874</v>
+        <v>0.1018651362984218</v>
       </c>
       <c r="L80">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="M80">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>205</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K81">
-        <v>0.1299435028248588</v>
+        <v>0.1010928961748634</v>
       </c>
       <c r="L81">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M81">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2876,21 +2879,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>154</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K82">
-        <v>0.1291512915129151</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L82">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M82">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -2902,73 +2905,73 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K83">
-        <v>0.1206140350877193</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="L83">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M83">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>401</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K84">
-        <v>0.1111111111111111</v>
+        <v>0.07749766573295985</v>
       </c>
       <c r="L84">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="M84">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>240</v>
+        <v>988</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K85">
-        <v>0.1105769230769231</v>
+        <v>0.05719557195571956</v>
       </c>
       <c r="L85">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M85">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -2980,15 +2983,15 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>185</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K86">
-        <v>0.1088709677419355</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="L86">
         <v>27</v>
@@ -3006,241 +3009,33 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>221</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K87">
-        <v>0.0954653937947494</v>
+        <v>0.03902862098872507</v>
       </c>
       <c r="L87">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M87">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K88">
-        <v>0.08908045977011494</v>
-      </c>
-      <c r="L88">
-        <v>62</v>
-      </c>
-      <c r="M88">
-        <v>64</v>
-      </c>
-      <c r="N88">
-        <v>0.97</v>
-      </c>
-      <c r="O88">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K89">
-        <v>0.07182835820895522</v>
-      </c>
-      <c r="L89">
-        <v>77</v>
-      </c>
-      <c r="M89">
-        <v>77</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K90">
-        <v>0.07103825136612021</v>
-      </c>
-      <c r="L90">
-        <v>26</v>
-      </c>
-      <c r="M90">
-        <v>26</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K91">
-        <v>0.06318681318681318</v>
-      </c>
-      <c r="L91">
-        <v>23</v>
-      </c>
-      <c r="M91">
-        <v>24</v>
-      </c>
-      <c r="N91">
-        <v>0.96</v>
-      </c>
-      <c r="O91">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K92">
-        <v>0.05597964376590331</v>
-      </c>
-      <c r="L92">
-        <v>22</v>
-      </c>
-      <c r="M92">
-        <v>23</v>
-      </c>
-      <c r="N92">
-        <v>0.96</v>
-      </c>
-      <c r="O92">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K93">
-        <v>0.05166051660516605</v>
-      </c>
-      <c r="L93">
-        <v>28</v>
-      </c>
-      <c r="M93">
-        <v>28</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
-      <c r="J94" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K94">
-        <v>0.04980842911877394</v>
-      </c>
-      <c r="L94">
-        <v>26</v>
-      </c>
-      <c r="M94">
-        <v>26</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K95">
-        <v>0.04329004329004329</v>
-      </c>
-      <c r="L95">
-        <v>50</v>
-      </c>
-      <c r="M95">
-        <v>52</v>
-      </c>
-      <c r="N95">
-        <v>0.96</v>
-      </c>
-      <c r="O95">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
